--- a/First iteration/data/excel files/RK55.xlsx
+++ b/First iteration/data/excel files/RK55.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>Filename</t>
   </si>
@@ -119,6 +119,36 @@
   </si>
   <si>
     <t>Datei enthält 12 Gangepisoden, Kompassspur irgendwie komisch</t>
+  </si>
+  <si>
+    <t>LTSD Parameters</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>Threshols</t>
+  </si>
+  <si>
+    <t>Win</t>
+  </si>
+  <si>
+    <t>Threshold</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>100.0</t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>400.0</t>
   </si>
 </sst>
 </file>
@@ -950,10 +980,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17:Q18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -967,7 +997,7 @@
     <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -981,7 +1011,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1007,10 +1037,35 @@
         <v>26</v>
       </c>
       <c r="K2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1036,10 +1091,22 @@
         <v>3.6689815000000001E-3</v>
       </c>
       <c r="K5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5" t="s">
+        <v>43</v>
+      </c>
+      <c r="N5" t="s">
+        <v>44</v>
+      </c>
+      <c r="O5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1047,7 +1114,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1055,7 +1122,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1063,7 +1130,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1071,7 +1138,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1079,7 +1146,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1087,7 +1154,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1095,7 +1162,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1103,7 +1170,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
